--- a/Översikt HUDDINGE.xlsx
+++ b/Översikt HUDDINGE.xlsx
@@ -575,7 +575,7 @@
         <v>45894</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>44253</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>45076</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>45608.6471875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>45076</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>45211</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45415.44597222222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1363,14 +1363,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 49421-2023</t>
+          <t>A 24384-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45211</v>
+        <v>45076</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1382,28 +1382,23 @@
           <t>HUDDINGE</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G10" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1415,56 +1410,52 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 49421-2023 artfynd.xlsx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24384-2023 artfynd.xlsx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 49421-2023 karta.png", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24384-2023 karta.png", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 49421-2023 FSC-klagomål.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24384-2023 FSC-klagomål.docx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 49421-2023 FSC-klagomål mail.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24384-2023 FSC-klagomål mail.docx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 49421-2023 tillsynsbegäran.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24384-2023 tillsynsbegäran.docx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 49421-2023 tillsynsbegäran mail.docx", "A 49421-2023")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/fåglar/A 49421-2023 prioriterade fågelarter.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24384-2023 tillsynsbegäran mail.docx", "A 24384-2023")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 491-2026</t>
+          <t>A 24262-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>46029.42581018519</v>
+        <v>45076</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1477,13 +1468,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1511,45 +1502,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 491-2026 artfynd.xlsx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24262-2023 artfynd.xlsx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 491-2026 karta.png", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24262-2023 karta.png", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 491-2026 FSC-klagomål.docx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24262-2023 FSC-klagomål.docx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 491-2026 FSC-klagomål mail.docx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24262-2023 FSC-klagomål mail.docx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 491-2026 tillsynsbegäran.docx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24262-2023 tillsynsbegäran.docx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 491-2026 tillsynsbegäran mail.docx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24262-2023 tillsynsbegäran mail.docx", "A 24262-2023")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 24384-2023</t>
+          <t>A 24368-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,16 +1553,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1586,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1596,45 +1587,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24384-2023 artfynd.xlsx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24368-2023 artfynd.xlsx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24384-2023 karta.png", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24368-2023 karta.png", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24384-2023 FSC-klagomål.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24368-2023 FSC-klagomål.docx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24384-2023 FSC-klagomål mail.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24368-2023 FSC-klagomål mail.docx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24384-2023 tillsynsbegäran.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24368-2023 tillsynsbegäran.docx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24384-2023 tillsynsbegäran mail.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24368-2023 tillsynsbegäran mail.docx", "A 24368-2023")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 24262-2023</t>
+          <t>A 491-2026</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45076</v>
+        <v>46029.42581018519</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1647,13 +1638,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1681,45 +1672,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24262-2023 artfynd.xlsx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 491-2026 artfynd.xlsx", "A 491-2026")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24262-2023 karta.png", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 491-2026 karta.png", "A 491-2026")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24262-2023 FSC-klagomål.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 491-2026 FSC-klagomål.docx", "A 491-2026")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24262-2023 FSC-klagomål mail.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 491-2026 FSC-klagomål mail.docx", "A 491-2026")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24262-2023 tillsynsbegäran.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 491-2026 tillsynsbegäran.docx", "A 491-2026")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24262-2023 tillsynsbegäran mail.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 491-2026 tillsynsbegäran mail.docx", "A 491-2026")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 24368-2023</t>
+          <t>A 49421-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45076</v>
+        <v>45211</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1731,14 +1722,19 @@
           <t>HUDDINGE</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1747,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1756,41 +1752,45 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24368-2023 artfynd.xlsx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 49421-2023 artfynd.xlsx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24368-2023 karta.png", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 49421-2023 karta.png", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24368-2023 FSC-klagomål.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 49421-2023 FSC-klagomål.docx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24368-2023 FSC-klagomål mail.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 49421-2023 FSC-klagomål mail.docx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24368-2023 tillsynsbegäran.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 49421-2023 tillsynsbegäran.docx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24368-2023 tillsynsbegäran mail.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 49421-2023 tillsynsbegäran mail.docx", "A 49421-2023")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/fåglar/A 49421-2023 prioriterade fågelarter.docx", "A 49421-2023")</f>
         <v/>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
         <v>45076</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44782</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1944,14 +1944,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 47173-2022</t>
+          <t>A 24254-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44852</v>
+        <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2001,14 +2001,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 24363-2023</t>
+          <t>A 24257-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2058,14 +2058,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 24254-2023</t>
+          <t>A 27561-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45076</v>
+        <v>45813.48378472222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2115,14 +2115,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 24257-2023</t>
+          <t>A 27589-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45076</v>
+        <v>45813.51070601852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2172,14 +2172,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 31246-2022</t>
+          <t>A 24363-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44771</v>
+        <v>45076</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.3</v>
+        <v>2.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2229,14 +2229,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 35404-2022</t>
+          <t>A 47173-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44798</v>
+        <v>44852</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2248,13 +2248,8 @@
           <t>HUDDINGE</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2291,14 +2286,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 27589-2025</t>
+          <t>A 35404-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45813.51070601852</v>
+        <v>44798</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2310,8 +2305,13 @@
           <t>HUDDINGE</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2348,14 +2348,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 27561-2025</t>
+          <t>A 31246-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45813.48378472222</v>
+        <v>44771</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>

--- a/Översikt HUDDINGE.xlsx
+++ b/Översikt HUDDINGE.xlsx
@@ -575,7 +575,7 @@
         <v>45894</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>44253</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>45076</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>45608.6471875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>45076</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>45211</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45415.44597222222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45076</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>45076</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>46029.42581018519</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>45211</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45076</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44782</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>45813.48378472222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>45813.51070601852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>45076</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>44852</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>44798</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>44771</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>

--- a/Översikt HUDDINGE.xlsx
+++ b/Översikt HUDDINGE.xlsx
@@ -575,7 +575,7 @@
         <v>45894</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>44253</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>45076</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>45608.6471875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>45076</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>45211</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45415.44597222222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45076</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>45076</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>46029.42581018519</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>45211</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45076</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44782</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>45813.48378472222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>45813.51070601852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>45076</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>44852</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>44798</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>44771</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>

--- a/Översikt HUDDINGE.xlsx
+++ b/Översikt HUDDINGE.xlsx
@@ -575,7 +575,7 @@
         <v>45894</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>44253</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>45076</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>45608.6471875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>45076</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>45211</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45415.44597222222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1363,14 +1363,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 24384-2023</t>
+          <t>A 49421-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45076</v>
+        <v>45211</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1382,23 +1382,28 @@
           <t>HUDDINGE</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1410,52 +1415,56 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24384-2023 artfynd.xlsx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 49421-2023 artfynd.xlsx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24384-2023 karta.png", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 49421-2023 karta.png", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24384-2023 FSC-klagomål.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 49421-2023 FSC-klagomål.docx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24384-2023 FSC-klagomål mail.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 49421-2023 FSC-klagomål mail.docx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24384-2023 tillsynsbegäran.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 49421-2023 tillsynsbegäran.docx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24384-2023 tillsynsbegäran mail.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 49421-2023 tillsynsbegäran mail.docx", "A 49421-2023")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/fåglar/A 49421-2023 prioriterade fågelarter.docx", "A 49421-2023")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 24262-2023</t>
+          <t>A 24384-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
         <v>45076</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1468,16 +1477,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1492,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1502,45 +1511,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24262-2023 artfynd.xlsx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24384-2023 artfynd.xlsx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24262-2023 karta.png", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24384-2023 karta.png", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24262-2023 FSC-klagomål.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24384-2023 FSC-klagomål.docx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24262-2023 FSC-klagomål mail.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24384-2023 FSC-klagomål mail.docx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24262-2023 tillsynsbegäran.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24384-2023 tillsynsbegäran.docx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24262-2023 tillsynsbegäran mail.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24384-2023 tillsynsbegäran mail.docx", "A 24384-2023")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 24368-2023</t>
+          <t>A 491-2026</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45076</v>
+        <v>46029.42581018519</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,13 +1562,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1587,45 +1596,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24368-2023 artfynd.xlsx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 491-2026 artfynd.xlsx", "A 491-2026")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24368-2023 karta.png", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 491-2026 karta.png", "A 491-2026")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24368-2023 FSC-klagomål.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 491-2026 FSC-klagomål.docx", "A 491-2026")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24368-2023 FSC-klagomål mail.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 491-2026 FSC-klagomål mail.docx", "A 491-2026")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24368-2023 tillsynsbegäran.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 491-2026 tillsynsbegäran.docx", "A 491-2026")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24368-2023 tillsynsbegäran mail.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 491-2026 tillsynsbegäran mail.docx", "A 491-2026")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 491-2026</t>
+          <t>A 24262-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>46029.42581018519</v>
+        <v>45076</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1638,13 +1647,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1672,45 +1681,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 491-2026 artfynd.xlsx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24262-2023 artfynd.xlsx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 491-2026 karta.png", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24262-2023 karta.png", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 491-2026 FSC-klagomål.docx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24262-2023 FSC-klagomål.docx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 491-2026 FSC-klagomål mail.docx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24262-2023 FSC-klagomål mail.docx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 491-2026 tillsynsbegäran.docx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24262-2023 tillsynsbegäran.docx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 491-2026 tillsynsbegäran mail.docx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24262-2023 tillsynsbegäran mail.docx", "A 24262-2023")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 49421-2023</t>
+          <t>A 24368-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45211</v>
+        <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1722,19 +1731,14 @@
           <t>HUDDINGE</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1743,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1752,45 +1756,41 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 49421-2023 artfynd.xlsx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24368-2023 artfynd.xlsx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 49421-2023 karta.png", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24368-2023 karta.png", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 49421-2023 FSC-klagomål.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24368-2023 FSC-klagomål.docx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 49421-2023 FSC-klagomål mail.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24368-2023 FSC-klagomål mail.docx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 49421-2023 tillsynsbegäran.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24368-2023 tillsynsbegäran.docx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 49421-2023 tillsynsbegäran mail.docx", "A 49421-2023")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/fåglar/A 49421-2023 prioriterade fågelarter.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24368-2023 tillsynsbegäran mail.docx", "A 24368-2023")</f>
         <v/>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
         <v>45076</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44782</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1944,14 +1944,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 24254-2023</t>
+          <t>A 24363-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
         <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2001,14 +2001,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 24257-2023</t>
+          <t>A 24254-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2058,14 +2058,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 27561-2025</t>
+          <t>A 24257-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45813.48378472222</v>
+        <v>45076</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2115,14 +2115,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 27589-2025</t>
+          <t>A 47173-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45813.51070601852</v>
+        <v>44852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2172,14 +2172,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 24363-2023</t>
+          <t>A 31246-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45076</v>
+        <v>44771</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2229,14 +2229,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 47173-2022</t>
+          <t>A 35404-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44852</v>
+        <v>44798</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2248,8 +2248,13 @@
           <t>HUDDINGE</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,14 +2291,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 35404-2022</t>
+          <t>A 27589-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44798</v>
+        <v>45813.51070601852</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2305,13 +2310,8 @@
           <t>HUDDINGE</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2348,14 +2348,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 31246-2022</t>
+          <t>A 27561-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44771</v>
+        <v>45813.48378472222</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>

--- a/Översikt HUDDINGE.xlsx
+++ b/Översikt HUDDINGE.xlsx
@@ -575,7 +575,7 @@
         <v>45894</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>44253</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>45076</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>45608.6471875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>45076</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>45211</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45415.44597222222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1363,14 +1363,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 49421-2023</t>
+          <t>A 24384-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45211</v>
+        <v>45076</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1382,28 +1382,23 @@
           <t>HUDDINGE</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G10" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1415,56 +1410,52 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 49421-2023 artfynd.xlsx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24384-2023 artfynd.xlsx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 49421-2023 karta.png", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24384-2023 karta.png", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 49421-2023 FSC-klagomål.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24384-2023 FSC-klagomål.docx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 49421-2023 FSC-klagomål mail.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24384-2023 FSC-klagomål mail.docx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 49421-2023 tillsynsbegäran.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24384-2023 tillsynsbegäran.docx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 49421-2023 tillsynsbegäran mail.docx", "A 49421-2023")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/fåglar/A 49421-2023 prioriterade fågelarter.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24384-2023 tillsynsbegäran mail.docx", "A 24384-2023")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 24384-2023</t>
+          <t>A 24262-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
         <v>45076</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1477,16 +1468,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1501,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1511,45 +1502,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24384-2023 artfynd.xlsx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24262-2023 artfynd.xlsx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24384-2023 karta.png", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24262-2023 karta.png", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24384-2023 FSC-klagomål.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24262-2023 FSC-klagomål.docx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24384-2023 FSC-klagomål mail.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24262-2023 FSC-klagomål mail.docx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24384-2023 tillsynsbegäran.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24262-2023 tillsynsbegäran.docx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24384-2023 tillsynsbegäran mail.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24262-2023 tillsynsbegäran mail.docx", "A 24262-2023")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 491-2026</t>
+          <t>A 24368-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>46029.42581018519</v>
+        <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,13 +1553,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1596,45 +1587,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 491-2026 artfynd.xlsx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24368-2023 artfynd.xlsx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 491-2026 karta.png", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24368-2023 karta.png", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 491-2026 FSC-klagomål.docx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24368-2023 FSC-klagomål.docx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 491-2026 FSC-klagomål mail.docx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24368-2023 FSC-klagomål mail.docx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 491-2026 tillsynsbegäran.docx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24368-2023 tillsynsbegäran.docx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 491-2026 tillsynsbegäran mail.docx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24368-2023 tillsynsbegäran mail.docx", "A 24368-2023")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 24262-2023</t>
+          <t>A 491-2026</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45076</v>
+        <v>46029.42581018519</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1647,13 +1638,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1681,45 +1672,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24262-2023 artfynd.xlsx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 491-2026 artfynd.xlsx", "A 491-2026")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24262-2023 karta.png", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 491-2026 karta.png", "A 491-2026")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24262-2023 FSC-klagomål.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 491-2026 FSC-klagomål.docx", "A 491-2026")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24262-2023 FSC-klagomål mail.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 491-2026 FSC-klagomål mail.docx", "A 491-2026")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24262-2023 tillsynsbegäran.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 491-2026 tillsynsbegäran.docx", "A 491-2026")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24262-2023 tillsynsbegäran mail.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 491-2026 tillsynsbegäran mail.docx", "A 491-2026")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 24368-2023</t>
+          <t>A 49421-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45076</v>
+        <v>45211</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1731,14 +1722,19 @@
           <t>HUDDINGE</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1747,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1756,41 +1752,45 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24368-2023 artfynd.xlsx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 49421-2023 artfynd.xlsx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24368-2023 karta.png", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 49421-2023 karta.png", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24368-2023 FSC-klagomål.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 49421-2023 FSC-klagomål.docx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24368-2023 FSC-klagomål mail.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 49421-2023 FSC-klagomål mail.docx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24368-2023 tillsynsbegäran.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 49421-2023 tillsynsbegäran.docx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24368-2023 tillsynsbegäran mail.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 49421-2023 tillsynsbegäran mail.docx", "A 49421-2023")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/fåglar/A 49421-2023 prioriterade fågelarter.docx", "A 49421-2023")</f>
         <v/>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
         <v>45076</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44782</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1944,14 +1944,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 24363-2023</t>
+          <t>A 24254-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
         <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2001,14 +2001,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 24254-2023</t>
+          <t>A 24257-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2058,14 +2058,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 24257-2023</t>
+          <t>A 27561-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45076</v>
+        <v>45813.48378472222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2115,14 +2115,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 47173-2022</t>
+          <t>A 27589-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44852</v>
+        <v>45813.51070601852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2172,14 +2172,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 31246-2022</t>
+          <t>A 24363-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44771</v>
+        <v>45076</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.3</v>
+        <v>2.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2229,14 +2229,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 35404-2022</t>
+          <t>A 47173-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44798</v>
+        <v>44852</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2248,13 +2248,8 @@
           <t>HUDDINGE</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2291,14 +2286,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 27589-2025</t>
+          <t>A 35404-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45813.51070601852</v>
+        <v>44798</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2310,8 +2305,13 @@
           <t>HUDDINGE</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2348,14 +2348,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 27561-2025</t>
+          <t>A 31246-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45813.48378472222</v>
+        <v>44771</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>

--- a/Översikt HUDDINGE.xlsx
+++ b/Översikt HUDDINGE.xlsx
@@ -575,7 +575,7 @@
         <v>45894</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>44253</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>45076</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>45608.6471875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>45076</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>45211</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45415.44597222222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1363,14 +1363,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 24384-2023</t>
+          <t>A 49421-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45076</v>
+        <v>45211</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1382,23 +1382,28 @@
           <t>HUDDINGE</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1410,52 +1415,56 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24384-2023 artfynd.xlsx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 49421-2023 artfynd.xlsx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24384-2023 karta.png", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 49421-2023 karta.png", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24384-2023 FSC-klagomål.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 49421-2023 FSC-klagomål.docx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24384-2023 FSC-klagomål mail.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 49421-2023 FSC-klagomål mail.docx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24384-2023 tillsynsbegäran.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 49421-2023 tillsynsbegäran.docx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24384-2023 tillsynsbegäran mail.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 49421-2023 tillsynsbegäran mail.docx", "A 49421-2023")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/fåglar/A 49421-2023 prioriterade fågelarter.docx", "A 49421-2023")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 24262-2023</t>
+          <t>A 24384-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
         <v>45076</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1468,16 +1477,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1492,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1502,45 +1511,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24262-2023 artfynd.xlsx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24384-2023 artfynd.xlsx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24262-2023 karta.png", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24384-2023 karta.png", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24262-2023 FSC-klagomål.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24384-2023 FSC-klagomål.docx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24262-2023 FSC-klagomål mail.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24384-2023 FSC-klagomål mail.docx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24262-2023 tillsynsbegäran.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24384-2023 tillsynsbegäran.docx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24262-2023 tillsynsbegäran mail.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24384-2023 tillsynsbegäran mail.docx", "A 24384-2023")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 24368-2023</t>
+          <t>A 24262-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,10 +1562,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1587,45 +1596,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24368-2023 artfynd.xlsx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24262-2023 artfynd.xlsx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24368-2023 karta.png", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24262-2023 karta.png", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24368-2023 FSC-klagomål.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24262-2023 FSC-klagomål.docx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24368-2023 FSC-klagomål mail.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24262-2023 FSC-klagomål mail.docx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24368-2023 tillsynsbegäran.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24262-2023 tillsynsbegäran.docx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24368-2023 tillsynsbegäran mail.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24262-2023 tillsynsbegäran mail.docx", "A 24262-2023")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 491-2026</t>
+          <t>A 24368-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>46029.42581018519</v>
+        <v>45076</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1638,13 +1647,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1672,45 +1681,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 491-2026 artfynd.xlsx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24368-2023 artfynd.xlsx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 491-2026 karta.png", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24368-2023 karta.png", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 491-2026 FSC-klagomål.docx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24368-2023 FSC-klagomål.docx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 491-2026 FSC-klagomål mail.docx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24368-2023 FSC-klagomål mail.docx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 491-2026 tillsynsbegäran.docx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24368-2023 tillsynsbegäran.docx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 491-2026 tillsynsbegäran mail.docx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24368-2023 tillsynsbegäran mail.docx", "A 24368-2023")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 49421-2023</t>
+          <t>A 24233-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45211</v>
+        <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1722,28 +1731,23 @@
           <t>HUDDINGE</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1755,56 +1759,52 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 49421-2023 artfynd.xlsx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24233-2023 artfynd.xlsx", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 49421-2023 karta.png", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24233-2023 karta.png", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 49421-2023 FSC-klagomål.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24233-2023 FSC-klagomål.docx", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 49421-2023 FSC-klagomål mail.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24233-2023 FSC-klagomål mail.docx", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 49421-2023 tillsynsbegäran.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24233-2023 tillsynsbegäran.docx", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 49421-2023 tillsynsbegäran mail.docx", "A 49421-2023")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/fåglar/A 49421-2023 prioriterade fågelarter.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24233-2023 tillsynsbegäran mail.docx", "A 24233-2023")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 24233-2023</t>
+          <t>A 491-2026</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45076</v>
+        <v>46029.42581018519</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1817,16 +1817,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1851,31 +1851,31 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24233-2023 artfynd.xlsx", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 491-2026 artfynd.xlsx", "A 491-2026")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24233-2023 karta.png", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 491-2026 karta.png", "A 491-2026")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24233-2023 FSC-klagomål.docx", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 491-2026 FSC-klagomål.docx", "A 491-2026")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24233-2023 FSC-klagomål mail.docx", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 491-2026 FSC-klagomål mail.docx", "A 491-2026")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24233-2023 tillsynsbegäran.docx", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 491-2026 tillsynsbegäran.docx", "A 491-2026")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24233-2023 tillsynsbegäran mail.docx", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 491-2026 tillsynsbegäran mail.docx", "A 491-2026")</f>
         <v/>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
         <v>44782</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1944,14 +1944,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 24254-2023</t>
+          <t>A 47173-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45076</v>
+        <v>44852</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2001,14 +2001,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 24257-2023</t>
+          <t>A 27589-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45076</v>
+        <v>45813.51070601852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>45813.48378472222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2115,14 +2115,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 27589-2025</t>
+          <t>A 24363-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45813.51070601852</v>
+        <v>45076</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2172,14 +2172,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 24363-2023</t>
+          <t>A 24254-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
         <v>45076</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2229,14 +2229,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 47173-2022</t>
+          <t>A 24257-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44852</v>
+        <v>45076</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,14 +2286,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 35404-2022</t>
+          <t>A 31246-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44798</v>
+        <v>44771</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2305,13 +2305,8 @@
           <t>HUDDINGE</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>1.4</v>
+        <v>4.3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2348,14 +2343,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 31246-2022</t>
+          <t>A 35404-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44771</v>
+        <v>44798</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2367,8 +2362,13 @@
           <t>HUDDINGE</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>

--- a/Översikt HUDDINGE.xlsx
+++ b/Översikt HUDDINGE.xlsx
@@ -575,7 +575,7 @@
         <v>45894</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>44253</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>45076</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>45608.6471875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>45076</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>45211</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45415.44597222222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1363,14 +1363,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 49421-2023</t>
+          <t>A 24384-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45211</v>
+        <v>45076</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1382,28 +1382,23 @@
           <t>HUDDINGE</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G10" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1415,56 +1410,52 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 49421-2023 artfynd.xlsx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24384-2023 artfynd.xlsx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 49421-2023 karta.png", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24384-2023 karta.png", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 49421-2023 FSC-klagomål.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24384-2023 FSC-klagomål.docx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 49421-2023 FSC-klagomål mail.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24384-2023 FSC-klagomål mail.docx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 49421-2023 tillsynsbegäran.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24384-2023 tillsynsbegäran.docx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 49421-2023 tillsynsbegäran mail.docx", "A 49421-2023")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/fåglar/A 49421-2023 prioriterade fågelarter.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24384-2023 tillsynsbegäran mail.docx", "A 24384-2023")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 24384-2023</t>
+          <t>A 24262-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
         <v>45076</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1477,16 +1468,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1501,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1511,45 +1502,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24384-2023 artfynd.xlsx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24262-2023 artfynd.xlsx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24384-2023 karta.png", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24262-2023 karta.png", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24384-2023 FSC-klagomål.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24262-2023 FSC-klagomål.docx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24384-2023 FSC-klagomål mail.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24262-2023 FSC-klagomål mail.docx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24384-2023 tillsynsbegäran.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24262-2023 tillsynsbegäran.docx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24384-2023 tillsynsbegäran mail.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24262-2023 tillsynsbegäran mail.docx", "A 24262-2023")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 24262-2023</t>
+          <t>A 24368-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,10 +1553,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1596,45 +1587,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24262-2023 artfynd.xlsx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24368-2023 artfynd.xlsx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24262-2023 karta.png", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24368-2023 karta.png", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24262-2023 FSC-klagomål.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24368-2023 FSC-klagomål.docx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24262-2023 FSC-klagomål mail.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24368-2023 FSC-klagomål mail.docx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24262-2023 tillsynsbegäran.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24368-2023 tillsynsbegäran.docx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24262-2023 tillsynsbegäran mail.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24368-2023 tillsynsbegäran mail.docx", "A 24368-2023")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 24368-2023</t>
+          <t>A 491-2026</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45076</v>
+        <v>46029.42581018519</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1647,13 +1638,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1681,45 +1672,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24368-2023 artfynd.xlsx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 491-2026 artfynd.xlsx", "A 491-2026")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24368-2023 karta.png", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 491-2026 karta.png", "A 491-2026")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24368-2023 FSC-klagomål.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 491-2026 FSC-klagomål.docx", "A 491-2026")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24368-2023 FSC-klagomål mail.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 491-2026 FSC-klagomål mail.docx", "A 491-2026")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24368-2023 tillsynsbegäran.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 491-2026 tillsynsbegäran.docx", "A 491-2026")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24368-2023 tillsynsbegäran mail.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 491-2026 tillsynsbegäran mail.docx", "A 491-2026")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 24233-2023</t>
+          <t>A 49421-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45076</v>
+        <v>45211</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1731,23 +1722,28 @@
           <t>HUDDINGE</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1759,52 +1755,56 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24233-2023 artfynd.xlsx", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 49421-2023 artfynd.xlsx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24233-2023 karta.png", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 49421-2023 karta.png", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24233-2023 FSC-klagomål.docx", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 49421-2023 FSC-klagomål.docx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24233-2023 FSC-klagomål mail.docx", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 49421-2023 FSC-klagomål mail.docx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24233-2023 tillsynsbegäran.docx", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 49421-2023 tillsynsbegäran.docx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24233-2023 tillsynsbegäran mail.docx", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 49421-2023 tillsynsbegäran mail.docx", "A 49421-2023")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/fåglar/A 49421-2023 prioriterade fågelarter.docx", "A 49421-2023")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 491-2026</t>
+          <t>A 24233-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>46029.42581018519</v>
+        <v>45076</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1817,16 +1817,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1851,31 +1851,31 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 491-2026 artfynd.xlsx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24233-2023 artfynd.xlsx", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 491-2026 karta.png", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24233-2023 karta.png", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 491-2026 FSC-klagomål.docx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24233-2023 FSC-klagomål.docx", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 491-2026 FSC-klagomål mail.docx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24233-2023 FSC-klagomål mail.docx", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 491-2026 tillsynsbegäran.docx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24233-2023 tillsynsbegäran.docx", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 491-2026 tillsynsbegäran mail.docx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24233-2023 tillsynsbegäran mail.docx", "A 24233-2023")</f>
         <v/>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
         <v>44782</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1944,14 +1944,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 47173-2022</t>
+          <t>A 24254-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44852</v>
+        <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2001,14 +2001,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 27589-2025</t>
+          <t>A 24257-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45813.51070601852</v>
+        <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>45813.48378472222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2115,14 +2115,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 24363-2023</t>
+          <t>A 27589-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45076</v>
+        <v>45813.51070601852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2172,14 +2172,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 24254-2023</t>
+          <t>A 24363-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
         <v>45076</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2229,14 +2229,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 24257-2023</t>
+          <t>A 47173-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45076</v>
+        <v>44852</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,14 +2286,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 31246-2022</t>
+          <t>A 35404-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44771</v>
+        <v>44798</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2305,8 +2305,13 @@
           <t>HUDDINGE</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2343,14 +2348,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 35404-2022</t>
+          <t>A 31246-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44798</v>
+        <v>44771</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2362,13 +2367,8 @@
           <t>HUDDINGE</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>1.4</v>
+        <v>4.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>

--- a/Översikt HUDDINGE.xlsx
+++ b/Översikt HUDDINGE.xlsx
@@ -575,7 +575,7 @@
         <v>45894</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>44253</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>45076</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>45608.6471875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>45076</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>45211</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45415.44597222222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45076</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>45076</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>46029.42581018519</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>45211</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45076</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44782</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>45813.48378472222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>45813.51070601852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>45076</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>44852</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>44798</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>44771</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>

--- a/Översikt HUDDINGE.xlsx
+++ b/Översikt HUDDINGE.xlsx
@@ -575,7 +575,7 @@
         <v>45894</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>44253</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>45076</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>45608.6471875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>45076</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>45211</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45415.44597222222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45076</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>45076</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>46029.42581018519</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>45211</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45076</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44782</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>45813.48378472222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>45813.51070601852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>45076</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>44852</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>44798</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>44771</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>

--- a/Översikt HUDDINGE.xlsx
+++ b/Översikt HUDDINGE.xlsx
@@ -575,7 +575,7 @@
         <v>45894</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>44253</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>45076</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>45608.6471875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>45076</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1178,14 +1178,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 49419-2023</t>
+          <t>A 17467-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45211</v>
+        <v>45415.44597222222</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,16 +1197,11 @@
           <t>HUDDINGE</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G8" t="n">
-        <v>1.9</v>
+        <v>14</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1215,10 +1210,10 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1237,50 +1232,50 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Grönfink
-Ärtsångare</t>
+          <t>Knärot
+Motaggsvamp</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 49419-2023 artfynd.xlsx", "A 49419-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 17467-2024 artfynd.xlsx", "A 17467-2024")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 49419-2023 karta.png", "A 49419-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 17467-2024 karta.png", "A 17467-2024")</f>
+        <v/>
+      </c>
+      <c r="U8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/knärot/A 17467-2024 karta knärot.png", "A 17467-2024")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 49419-2023 FSC-klagomål.docx", "A 49419-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 17467-2024 FSC-klagomål.docx", "A 17467-2024")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 49419-2023 FSC-klagomål mail.docx", "A 49419-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 17467-2024 FSC-klagomål mail.docx", "A 17467-2024")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 49419-2023 tillsynsbegäran.docx", "A 49419-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 17467-2024 tillsynsbegäran.docx", "A 17467-2024")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 49419-2023 tillsynsbegäran mail.docx", "A 49419-2023")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/fåglar/A 49419-2023 prioriterade fågelarter.docx", "A 49419-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 17467-2024 tillsynsbegäran mail.docx", "A 17467-2024")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 17467-2024</t>
+          <t>A 49419-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45415.44597222222</v>
+        <v>45211</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1292,11 +1287,16 @@
           <t>HUDDINGE</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>14</v>
+        <v>1.9</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1305,10 +1305,10 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1327,50 +1327,50 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Knärot
-Motaggsvamp</t>
+          <t>Grönfink
+Ärtsångare</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 17467-2024 artfynd.xlsx", "A 17467-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 49419-2023 artfynd.xlsx", "A 49419-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 17467-2024 karta.png", "A 17467-2024")</f>
-        <v/>
-      </c>
-      <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/knärot/A 17467-2024 karta knärot.png", "A 17467-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 49419-2023 karta.png", "A 49419-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 17467-2024 FSC-klagomål.docx", "A 17467-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 49419-2023 FSC-klagomål.docx", "A 49419-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 17467-2024 FSC-klagomål mail.docx", "A 17467-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 49419-2023 FSC-klagomål mail.docx", "A 49419-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 17467-2024 tillsynsbegäran.docx", "A 17467-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 49419-2023 tillsynsbegäran.docx", "A 49419-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 17467-2024 tillsynsbegäran mail.docx", "A 17467-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 49419-2023 tillsynsbegäran mail.docx", "A 49419-2023")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/fåglar/A 49419-2023 prioriterade fågelarter.docx", "A 49419-2023")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 24384-2023</t>
+          <t>A 24233-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
         <v>45076</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1417,45 +1417,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24384-2023 artfynd.xlsx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24233-2023 artfynd.xlsx", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24384-2023 karta.png", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24233-2023 karta.png", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24384-2023 FSC-klagomål.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24233-2023 FSC-klagomål.docx", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24384-2023 FSC-klagomål mail.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24233-2023 FSC-klagomål mail.docx", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24384-2023 tillsynsbegäran.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24233-2023 tillsynsbegäran.docx", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24384-2023 tillsynsbegäran mail.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24233-2023 tillsynsbegäran mail.docx", "A 24233-2023")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 24262-2023</t>
+          <t>A 49421-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45076</v>
+        <v>45211</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1467,14 +1467,19 @@
           <t>HUDDINGE</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G11" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1483,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1492,55 +1497,59 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24262-2023 artfynd.xlsx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 49421-2023 artfynd.xlsx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24262-2023 karta.png", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 49421-2023 karta.png", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24262-2023 FSC-klagomål.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 49421-2023 FSC-klagomål.docx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24262-2023 FSC-klagomål mail.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 49421-2023 FSC-klagomål mail.docx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24262-2023 tillsynsbegäran.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 49421-2023 tillsynsbegäran.docx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24262-2023 tillsynsbegäran mail.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 49421-2023 tillsynsbegäran mail.docx", "A 49421-2023")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/fåglar/A 49421-2023 prioriterade fågelarter.docx", "A 49421-2023")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 24368-2023</t>
+          <t>A 24384-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,16 +1562,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1577,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1587,31 +1596,31 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24368-2023 artfynd.xlsx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24384-2023 artfynd.xlsx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24368-2023 karta.png", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24384-2023 karta.png", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24368-2023 FSC-klagomål.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24384-2023 FSC-klagomål.docx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24368-2023 FSC-klagomål mail.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24384-2023 FSC-klagomål mail.docx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24368-2023 tillsynsbegäran.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24384-2023 tillsynsbegäran.docx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24368-2023 tillsynsbegäran mail.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24384-2023 tillsynsbegäran mail.docx", "A 24384-2023")</f>
         <v/>
       </c>
     </row>
@@ -1625,7 +1634,7 @@
         <v>46029.42581018519</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,14 +1712,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 49421-2023</t>
+          <t>A 24262-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45211</v>
+        <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1722,19 +1731,14 @@
           <t>HUDDINGE</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1743,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1752,59 +1756,55 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 49421-2023 artfynd.xlsx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24262-2023 artfynd.xlsx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 49421-2023 karta.png", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24262-2023 karta.png", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 49421-2023 FSC-klagomål.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24262-2023 FSC-klagomål.docx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 49421-2023 FSC-klagomål mail.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24262-2023 FSC-klagomål mail.docx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 49421-2023 tillsynsbegäran.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24262-2023 tillsynsbegäran.docx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 49421-2023 tillsynsbegäran mail.docx", "A 49421-2023")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/fåglar/A 49421-2023 prioriterade fågelarter.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24262-2023 tillsynsbegäran mail.docx", "A 24262-2023")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 24233-2023</t>
+          <t>A 24368-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
         <v>45076</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1817,16 +1817,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1851,31 +1851,31 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24233-2023 artfynd.xlsx", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24368-2023 artfynd.xlsx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24233-2023 karta.png", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24368-2023 karta.png", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24233-2023 FSC-klagomål.docx", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24368-2023 FSC-klagomål.docx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24233-2023 FSC-klagomål mail.docx", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24368-2023 FSC-klagomål mail.docx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24233-2023 tillsynsbegäran.docx", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24368-2023 tillsynsbegäran.docx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24233-2023 tillsynsbegäran mail.docx", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24368-2023 tillsynsbegäran mail.docx", "A 24368-2023")</f>
         <v/>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
         <v>44782</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1944,14 +1944,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 24254-2023</t>
+          <t>A 27589-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45076</v>
+        <v>45813.51070601852</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2001,14 +2001,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 24257-2023</t>
+          <t>A 27561-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45076</v>
+        <v>45813.48378472222</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2058,14 +2058,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 27561-2025</t>
+          <t>A 24363-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45813.48378472222</v>
+        <v>45076</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2115,14 +2115,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 27589-2025</t>
+          <t>A 24254-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45813.51070601852</v>
+        <v>45076</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2172,14 +2172,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 24363-2023</t>
+          <t>A 24257-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
         <v>45076</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         <v>44852</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2286,14 +2286,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 35404-2022</t>
+          <t>A 31246-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44798</v>
+        <v>44771</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2305,13 +2305,8 @@
           <t>HUDDINGE</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>1.4</v>
+        <v>4.3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2348,14 +2343,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 31246-2022</t>
+          <t>A 35404-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44771</v>
+        <v>44798</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2367,8 +2362,13 @@
           <t>HUDDINGE</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>

--- a/Översikt HUDDINGE.xlsx
+++ b/Översikt HUDDINGE.xlsx
@@ -575,7 +575,7 @@
         <v>45894</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>44253</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>45076</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>45608.6471875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>45076</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1178,14 +1178,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 17467-2024</t>
+          <t>A 49419-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45415.44597222222</v>
+        <v>45211</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,11 +1197,16 @@
           <t>HUDDINGE</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G8" t="n">
-        <v>14</v>
+        <v>1.9</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1210,10 +1215,10 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1232,50 +1237,50 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Knärot
-Motaggsvamp</t>
+          <t>Grönfink
+Ärtsångare</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 17467-2024 artfynd.xlsx", "A 17467-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 49419-2023 artfynd.xlsx", "A 49419-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 17467-2024 karta.png", "A 17467-2024")</f>
-        <v/>
-      </c>
-      <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/knärot/A 17467-2024 karta knärot.png", "A 17467-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 49419-2023 karta.png", "A 49419-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 17467-2024 FSC-klagomål.docx", "A 17467-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 49419-2023 FSC-klagomål.docx", "A 49419-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 17467-2024 FSC-klagomål mail.docx", "A 17467-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 49419-2023 FSC-klagomål mail.docx", "A 49419-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 17467-2024 tillsynsbegäran.docx", "A 17467-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 49419-2023 tillsynsbegäran.docx", "A 49419-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 17467-2024 tillsynsbegäran mail.docx", "A 17467-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 49419-2023 tillsynsbegäran mail.docx", "A 49419-2023")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/fåglar/A 49419-2023 prioriterade fågelarter.docx", "A 49419-2023")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 49419-2023</t>
+          <t>A 17467-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45211</v>
+        <v>45415.44597222222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1287,16 +1292,11 @@
           <t>HUDDINGE</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>1.9</v>
+        <v>14</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1305,10 +1305,10 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1327,50 +1327,50 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Grönfink
-Ärtsångare</t>
+          <t>Knärot
+Motaggsvamp</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 49419-2023 artfynd.xlsx", "A 49419-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 17467-2024 artfynd.xlsx", "A 17467-2024")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 49419-2023 karta.png", "A 49419-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 17467-2024 karta.png", "A 17467-2024")</f>
+        <v/>
+      </c>
+      <c r="U9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/knärot/A 17467-2024 karta knärot.png", "A 17467-2024")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 49419-2023 FSC-klagomål.docx", "A 49419-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 17467-2024 FSC-klagomål.docx", "A 17467-2024")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 49419-2023 FSC-klagomål mail.docx", "A 49419-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 17467-2024 FSC-klagomål mail.docx", "A 17467-2024")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 49419-2023 tillsynsbegäran.docx", "A 49419-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 17467-2024 tillsynsbegäran.docx", "A 17467-2024")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 49419-2023 tillsynsbegäran mail.docx", "A 49419-2023")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/fåglar/A 49419-2023 prioriterade fågelarter.docx", "A 49419-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 17467-2024 tillsynsbegäran mail.docx", "A 17467-2024")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 24233-2023</t>
+          <t>A 24384-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
         <v>45076</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1417,45 +1417,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24233-2023 artfynd.xlsx", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24384-2023 artfynd.xlsx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24233-2023 karta.png", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24384-2023 karta.png", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24233-2023 FSC-klagomål.docx", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24384-2023 FSC-klagomål.docx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24233-2023 FSC-klagomål mail.docx", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24384-2023 FSC-klagomål mail.docx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24233-2023 tillsynsbegäran.docx", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24384-2023 tillsynsbegäran.docx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24233-2023 tillsynsbegäran mail.docx", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24384-2023 tillsynsbegäran mail.docx", "A 24384-2023")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 49421-2023</t>
+          <t>A 24262-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45211</v>
+        <v>45076</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1467,19 +1467,14 @@
           <t>HUDDINGE</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G11" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1488,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1497,59 +1492,55 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 49421-2023 artfynd.xlsx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24262-2023 artfynd.xlsx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 49421-2023 karta.png", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24262-2023 karta.png", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 49421-2023 FSC-klagomål.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24262-2023 FSC-klagomål.docx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 49421-2023 FSC-klagomål mail.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24262-2023 FSC-klagomål mail.docx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 49421-2023 tillsynsbegäran.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24262-2023 tillsynsbegäran.docx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 49421-2023 tillsynsbegäran mail.docx", "A 49421-2023")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/fåglar/A 49421-2023 prioriterade fågelarter.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24262-2023 tillsynsbegäran mail.docx", "A 24262-2023")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 24384-2023</t>
+          <t>A 24368-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,16 +1553,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1586,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1596,31 +1587,31 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24384-2023 artfynd.xlsx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24368-2023 artfynd.xlsx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24384-2023 karta.png", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24368-2023 karta.png", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24384-2023 FSC-klagomål.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24368-2023 FSC-klagomål.docx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24384-2023 FSC-klagomål mail.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24368-2023 FSC-klagomål mail.docx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24384-2023 tillsynsbegäran.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24368-2023 tillsynsbegäran.docx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24384-2023 tillsynsbegäran mail.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24368-2023 tillsynsbegäran mail.docx", "A 24368-2023")</f>
         <v/>
       </c>
     </row>
@@ -1634,7 +1625,7 @@
         <v>46029.42581018519</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1712,14 +1703,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 24262-2023</t>
+          <t>A 49421-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45076</v>
+        <v>45211</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1731,14 +1722,19 @@
           <t>HUDDINGE</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1747,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1756,55 +1752,59 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24262-2023 artfynd.xlsx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 49421-2023 artfynd.xlsx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24262-2023 karta.png", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 49421-2023 karta.png", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24262-2023 FSC-klagomål.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 49421-2023 FSC-klagomål.docx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24262-2023 FSC-klagomål mail.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 49421-2023 FSC-klagomål mail.docx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24262-2023 tillsynsbegäran.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 49421-2023 tillsynsbegäran.docx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24262-2023 tillsynsbegäran mail.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 49421-2023 tillsynsbegäran mail.docx", "A 49421-2023")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/fåglar/A 49421-2023 prioriterade fågelarter.docx", "A 49421-2023")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 24368-2023</t>
+          <t>A 24233-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
         <v>45076</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1817,16 +1817,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1851,31 +1851,31 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24368-2023 artfynd.xlsx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24233-2023 artfynd.xlsx", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24368-2023 karta.png", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24233-2023 karta.png", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24368-2023 FSC-klagomål.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24233-2023 FSC-klagomål.docx", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24368-2023 FSC-klagomål mail.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24233-2023 FSC-klagomål mail.docx", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24368-2023 tillsynsbegäran.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24233-2023 tillsynsbegäran.docx", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24368-2023 tillsynsbegäran mail.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24233-2023 tillsynsbegäran mail.docx", "A 24233-2023")</f>
         <v/>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
         <v>44782</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1944,14 +1944,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 27589-2025</t>
+          <t>A 24254-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45813.51070601852</v>
+        <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2001,14 +2001,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 27561-2025</t>
+          <t>A 24257-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45813.48378472222</v>
+        <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>45076</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2115,14 +2115,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 24254-2023</t>
+          <t>A 47173-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45076</v>
+        <v>44852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2172,14 +2172,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 24257-2023</t>
+          <t>A 35404-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45076</v>
+        <v>44798</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2191,8 +2191,13 @@
           <t>HUDDINGE</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2229,14 +2234,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 47173-2022</t>
+          <t>A 31246-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44852</v>
+        <v>44771</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2249,7 +2254,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.9</v>
+        <v>4.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,14 +2291,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 31246-2022</t>
+          <t>A 27561-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44771</v>
+        <v>45813.48378472222</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2306,7 +2311,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2343,14 +2348,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 35404-2022</t>
+          <t>A 27589-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44798</v>
+        <v>45813.51070601852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2362,13 +2367,8 @@
           <t>HUDDINGE</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>

--- a/Översikt HUDDINGE.xlsx
+++ b/Översikt HUDDINGE.xlsx
@@ -575,7 +575,7 @@
         <v>45894</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>44253</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>45076</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>45608.6471875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>45076</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>45211</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45415.44597222222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45076</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>45076</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>46029.42581018519</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>45211</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45076</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44782</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>45076</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>44798</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>44771</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         <v>45813.48378472222</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>45813.51070601852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>

--- a/Översikt HUDDINGE.xlsx
+++ b/Översikt HUDDINGE.xlsx
@@ -575,7 +575,7 @@
         <v>45894</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>44253</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>45076</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>45608.6471875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>45076</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>45211</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45415.44597222222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45076</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>45076</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>46029.42581018519</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>45211</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45076</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44782</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>45076</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>44798</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>44771</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         <v>45813.48378472222</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>45813.51070601852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>

--- a/Översikt HUDDINGE.xlsx
+++ b/Översikt HUDDINGE.xlsx
@@ -575,7 +575,7 @@
         <v>45894</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>44253</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>45076</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>45608.6471875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>45076</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>45211</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45415.44597222222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1363,14 +1363,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 24384-2023</t>
+          <t>A 49421-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45076</v>
+        <v>45211</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1382,23 +1382,28 @@
           <t>HUDDINGE</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1410,52 +1415,56 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24384-2023 artfynd.xlsx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 49421-2023 artfynd.xlsx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24384-2023 karta.png", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 49421-2023 karta.png", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24384-2023 FSC-klagomål.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 49421-2023 FSC-klagomål.docx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24384-2023 FSC-klagomål mail.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 49421-2023 FSC-klagomål mail.docx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24384-2023 tillsynsbegäran.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 49421-2023 tillsynsbegäran.docx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24384-2023 tillsynsbegäran mail.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 49421-2023 tillsynsbegäran mail.docx", "A 49421-2023")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/fåglar/A 49421-2023 prioriterade fågelarter.docx", "A 49421-2023")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 24262-2023</t>
+          <t>A 24384-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
         <v>45076</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1468,16 +1477,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1492,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1502,45 +1511,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24262-2023 artfynd.xlsx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24384-2023 artfynd.xlsx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24262-2023 karta.png", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24384-2023 karta.png", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24262-2023 FSC-klagomål.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24384-2023 FSC-klagomål.docx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24262-2023 FSC-klagomål mail.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24384-2023 FSC-klagomål mail.docx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24262-2023 tillsynsbegäran.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24384-2023 tillsynsbegäran.docx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24262-2023 tillsynsbegäran mail.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24384-2023 tillsynsbegäran mail.docx", "A 24384-2023")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 24368-2023</t>
+          <t>A 24262-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,10 +1562,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1587,45 +1596,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24368-2023 artfynd.xlsx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24262-2023 artfynd.xlsx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24368-2023 karta.png", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24262-2023 karta.png", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24368-2023 FSC-klagomål.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24262-2023 FSC-klagomål.docx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24368-2023 FSC-klagomål mail.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24262-2023 FSC-klagomål mail.docx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24368-2023 tillsynsbegäran.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24262-2023 tillsynsbegäran.docx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24368-2023 tillsynsbegäran mail.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24262-2023 tillsynsbegäran mail.docx", "A 24262-2023")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 491-2026</t>
+          <t>A 24368-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>46029.42581018519</v>
+        <v>45076</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1638,13 +1647,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1672,45 +1681,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 491-2026 artfynd.xlsx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24368-2023 artfynd.xlsx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 491-2026 karta.png", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24368-2023 karta.png", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 491-2026 FSC-klagomål.docx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24368-2023 FSC-klagomål.docx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 491-2026 FSC-klagomål mail.docx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24368-2023 FSC-klagomål mail.docx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 491-2026 tillsynsbegäran.docx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24368-2023 tillsynsbegäran.docx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 491-2026 tillsynsbegäran mail.docx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24368-2023 tillsynsbegäran mail.docx", "A 24368-2023")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 49421-2023</t>
+          <t>A 24233-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45211</v>
+        <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1722,28 +1731,23 @@
           <t>HUDDINGE</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1755,56 +1759,52 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 49421-2023 artfynd.xlsx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24233-2023 artfynd.xlsx", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 49421-2023 karta.png", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24233-2023 karta.png", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 49421-2023 FSC-klagomål.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24233-2023 FSC-klagomål.docx", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 49421-2023 FSC-klagomål mail.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24233-2023 FSC-klagomål mail.docx", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 49421-2023 tillsynsbegäran.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24233-2023 tillsynsbegäran.docx", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 49421-2023 tillsynsbegäran mail.docx", "A 49421-2023")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/fåglar/A 49421-2023 prioriterade fågelarter.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24233-2023 tillsynsbegäran mail.docx", "A 24233-2023")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 24233-2023</t>
+          <t>A 491-2026</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45076</v>
+        <v>46029.42581018519</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1817,16 +1817,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1851,31 +1851,31 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24233-2023 artfynd.xlsx", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 491-2026 artfynd.xlsx", "A 491-2026")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24233-2023 karta.png", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 491-2026 karta.png", "A 491-2026")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24233-2023 FSC-klagomål.docx", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 491-2026 FSC-klagomål.docx", "A 491-2026")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24233-2023 FSC-klagomål mail.docx", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 491-2026 FSC-klagomål mail.docx", "A 491-2026")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24233-2023 tillsynsbegäran.docx", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 491-2026 tillsynsbegäran.docx", "A 491-2026")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24233-2023 tillsynsbegäran mail.docx", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 491-2026 tillsynsbegäran mail.docx", "A 491-2026")</f>
         <v/>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
         <v>44782</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1944,14 +1944,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 24254-2023</t>
+          <t>A 47173-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45076</v>
+        <v>44852</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2001,14 +2001,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 24257-2023</t>
+          <t>A 24363-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2058,14 +2058,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 24363-2023</t>
+          <t>A 24254-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
         <v>45076</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2115,14 +2115,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 47173-2022</t>
+          <t>A 24257-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44852</v>
+        <v>45076</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2172,14 +2172,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 35404-2022</t>
+          <t>A 31246-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44798</v>
+        <v>44771</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2191,13 +2191,8 @@
           <t>HUDDINGE</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>1.4</v>
+        <v>4.3</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2234,14 +2229,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 31246-2022</t>
+          <t>A 35404-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44771</v>
+        <v>44798</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2253,8 +2248,13 @@
           <t>HUDDINGE</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2291,14 +2291,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 27561-2025</t>
+          <t>A 27589-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45813.48378472222</v>
+        <v>45813.51070601852</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2348,14 +2348,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 27589-2025</t>
+          <t>A 27561-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45813.51070601852</v>
+        <v>45813.48378472222</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>

--- a/Översikt HUDDINGE.xlsx
+++ b/Översikt HUDDINGE.xlsx
@@ -575,7 +575,7 @@
         <v>45894</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>44253</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>45076</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>45608.6471875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>45076</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>45211</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45415.44597222222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1363,14 +1363,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 49421-2023</t>
+          <t>A 24384-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45211</v>
+        <v>45076</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1382,28 +1382,23 @@
           <t>HUDDINGE</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G10" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1415,56 +1410,52 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 49421-2023 artfynd.xlsx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24384-2023 artfynd.xlsx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 49421-2023 karta.png", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24384-2023 karta.png", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 49421-2023 FSC-klagomål.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24384-2023 FSC-klagomål.docx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 49421-2023 FSC-klagomål mail.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24384-2023 FSC-klagomål mail.docx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 49421-2023 tillsynsbegäran.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24384-2023 tillsynsbegäran.docx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 49421-2023 tillsynsbegäran mail.docx", "A 49421-2023")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/fåglar/A 49421-2023 prioriterade fågelarter.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24384-2023 tillsynsbegäran mail.docx", "A 24384-2023")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 24384-2023</t>
+          <t>A 24262-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
         <v>45076</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1477,16 +1468,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1501,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1511,45 +1502,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24384-2023 artfynd.xlsx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24262-2023 artfynd.xlsx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24384-2023 karta.png", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24262-2023 karta.png", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24384-2023 FSC-klagomål.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24262-2023 FSC-klagomål.docx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24384-2023 FSC-klagomål mail.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24262-2023 FSC-klagomål mail.docx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24384-2023 tillsynsbegäran.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24262-2023 tillsynsbegäran.docx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24384-2023 tillsynsbegäran mail.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24262-2023 tillsynsbegäran mail.docx", "A 24262-2023")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 24262-2023</t>
+          <t>A 24368-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,10 +1553,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1596,45 +1587,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24262-2023 artfynd.xlsx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24368-2023 artfynd.xlsx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24262-2023 karta.png", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24368-2023 karta.png", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24262-2023 FSC-klagomål.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24368-2023 FSC-klagomål.docx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24262-2023 FSC-klagomål mail.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24368-2023 FSC-klagomål mail.docx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24262-2023 tillsynsbegäran.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24368-2023 tillsynsbegäran.docx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24262-2023 tillsynsbegäran mail.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24368-2023 tillsynsbegäran mail.docx", "A 24368-2023")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 24368-2023</t>
+          <t>A 491-2026</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45076</v>
+        <v>46029.42581018519</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1647,13 +1638,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1681,45 +1672,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24368-2023 artfynd.xlsx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 491-2026 artfynd.xlsx", "A 491-2026")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24368-2023 karta.png", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 491-2026 karta.png", "A 491-2026")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24368-2023 FSC-klagomål.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 491-2026 FSC-klagomål.docx", "A 491-2026")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24368-2023 FSC-klagomål mail.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 491-2026 FSC-klagomål mail.docx", "A 491-2026")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24368-2023 tillsynsbegäran.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 491-2026 tillsynsbegäran.docx", "A 491-2026")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24368-2023 tillsynsbegäran mail.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 491-2026 tillsynsbegäran mail.docx", "A 491-2026")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 24233-2023</t>
+          <t>A 49421-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45076</v>
+        <v>45211</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1731,23 +1722,28 @@
           <t>HUDDINGE</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1759,52 +1755,56 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24233-2023 artfynd.xlsx", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 49421-2023 artfynd.xlsx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24233-2023 karta.png", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 49421-2023 karta.png", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24233-2023 FSC-klagomål.docx", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 49421-2023 FSC-klagomål.docx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24233-2023 FSC-klagomål mail.docx", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 49421-2023 FSC-klagomål mail.docx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24233-2023 tillsynsbegäran.docx", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 49421-2023 tillsynsbegäran.docx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24233-2023 tillsynsbegäran mail.docx", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 49421-2023 tillsynsbegäran mail.docx", "A 49421-2023")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/fåglar/A 49421-2023 prioriterade fågelarter.docx", "A 49421-2023")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 491-2026</t>
+          <t>A 24233-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>46029.42581018519</v>
+        <v>45076</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1817,16 +1817,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1851,31 +1851,31 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 491-2026 artfynd.xlsx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24233-2023 artfynd.xlsx", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 491-2026 karta.png", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24233-2023 karta.png", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 491-2026 FSC-klagomål.docx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24233-2023 FSC-klagomål.docx", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 491-2026 FSC-klagomål mail.docx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24233-2023 FSC-klagomål mail.docx", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 491-2026 tillsynsbegäran.docx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24233-2023 tillsynsbegäran.docx", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 491-2026 tillsynsbegäran mail.docx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24233-2023 tillsynsbegäran mail.docx", "A 24233-2023")</f>
         <v/>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
         <v>44782</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1944,14 +1944,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 47173-2022</t>
+          <t>A 24254-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44852</v>
+        <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2001,14 +2001,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 24363-2023</t>
+          <t>A 24257-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2058,14 +2058,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 24254-2023</t>
+          <t>A 27561-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45076</v>
+        <v>45813.48378472222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2115,14 +2115,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 24257-2023</t>
+          <t>A 27589-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45076</v>
+        <v>45813.51070601852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2172,14 +2172,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 31246-2022</t>
+          <t>A 24363-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44771</v>
+        <v>45076</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.3</v>
+        <v>2.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2229,14 +2229,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 35404-2022</t>
+          <t>A 47173-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44798</v>
+        <v>44852</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2248,13 +2248,8 @@
           <t>HUDDINGE</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2291,14 +2286,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 27589-2025</t>
+          <t>A 35404-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45813.51070601852</v>
+        <v>44798</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2310,8 +2305,13 @@
           <t>HUDDINGE</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2348,14 +2348,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 27561-2025</t>
+          <t>A 31246-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45813.48378472222</v>
+        <v>44771</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>

--- a/Översikt HUDDINGE.xlsx
+++ b/Översikt HUDDINGE.xlsx
@@ -575,7 +575,7 @@
         <v>45894</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>44253</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>45076</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>45608.6471875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>45076</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>45211</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45415.44597222222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1363,14 +1363,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 24384-2023</t>
+          <t>A 24262-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
         <v>45076</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,16 +1383,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1417,45 +1417,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24384-2023 artfynd.xlsx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24262-2023 artfynd.xlsx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24384-2023 karta.png", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24262-2023 karta.png", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24384-2023 FSC-klagomål.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24262-2023 FSC-klagomål.docx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24384-2023 FSC-klagomål mail.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24262-2023 FSC-klagomål mail.docx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24384-2023 tillsynsbegäran.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24262-2023 tillsynsbegäran.docx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24384-2023 tillsynsbegäran mail.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24262-2023 tillsynsbegäran mail.docx", "A 24262-2023")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 24262-2023</t>
+          <t>A 49421-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45076</v>
+        <v>45211</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1467,14 +1467,19 @@
           <t>HUDDINGE</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G11" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1483,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1492,55 +1497,59 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24262-2023 artfynd.xlsx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 49421-2023 artfynd.xlsx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24262-2023 karta.png", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 49421-2023 karta.png", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24262-2023 FSC-klagomål.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 49421-2023 FSC-klagomål.docx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24262-2023 FSC-klagomål mail.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 49421-2023 FSC-klagomål mail.docx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24262-2023 tillsynsbegäran.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 49421-2023 tillsynsbegäran.docx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24262-2023 tillsynsbegäran mail.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 49421-2023 tillsynsbegäran mail.docx", "A 49421-2023")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/fåglar/A 49421-2023 prioriterade fågelarter.docx", "A 49421-2023")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 24368-2023</t>
+          <t>A 24384-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,16 +1562,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1577,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1587,45 +1596,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24368-2023 artfynd.xlsx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24384-2023 artfynd.xlsx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24368-2023 karta.png", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24384-2023 karta.png", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24368-2023 FSC-klagomål.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24384-2023 FSC-klagomål.docx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24368-2023 FSC-klagomål mail.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24384-2023 FSC-klagomål mail.docx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24368-2023 tillsynsbegäran.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24384-2023 tillsynsbegäran.docx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24368-2023 tillsynsbegäran mail.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24384-2023 tillsynsbegäran mail.docx", "A 24384-2023")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 491-2026</t>
+          <t>A 24368-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>46029.42581018519</v>
+        <v>45076</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1638,13 +1647,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1672,45 +1681,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 491-2026 artfynd.xlsx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24368-2023 artfynd.xlsx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 491-2026 karta.png", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24368-2023 karta.png", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 491-2026 FSC-klagomål.docx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24368-2023 FSC-klagomål.docx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 491-2026 FSC-klagomål mail.docx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24368-2023 FSC-klagomål mail.docx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 491-2026 tillsynsbegäran.docx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24368-2023 tillsynsbegäran.docx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 491-2026 tillsynsbegäran mail.docx", "A 491-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24368-2023 tillsynsbegäran mail.docx", "A 24368-2023")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 49421-2023</t>
+          <t>A 24233-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45211</v>
+        <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1722,28 +1731,23 @@
           <t>HUDDINGE</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1755,56 +1759,52 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 49421-2023 artfynd.xlsx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24233-2023 artfynd.xlsx", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 49421-2023 karta.png", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24233-2023 karta.png", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 49421-2023 FSC-klagomål.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24233-2023 FSC-klagomål.docx", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 49421-2023 FSC-klagomål mail.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24233-2023 FSC-klagomål mail.docx", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 49421-2023 tillsynsbegäran.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24233-2023 tillsynsbegäran.docx", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 49421-2023 tillsynsbegäran mail.docx", "A 49421-2023")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/fåglar/A 49421-2023 prioriterade fågelarter.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24233-2023 tillsynsbegäran mail.docx", "A 24233-2023")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 24233-2023</t>
+          <t>A 491-2026</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45076</v>
+        <v>46029.42581018519</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1817,16 +1817,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1851,31 +1851,31 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24233-2023 artfynd.xlsx", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 491-2026 artfynd.xlsx", "A 491-2026")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24233-2023 karta.png", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 491-2026 karta.png", "A 491-2026")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24233-2023 FSC-klagomål.docx", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 491-2026 FSC-klagomål.docx", "A 491-2026")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24233-2023 FSC-klagomål mail.docx", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 491-2026 FSC-klagomål mail.docx", "A 491-2026")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24233-2023 tillsynsbegäran.docx", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 491-2026 tillsynsbegäran.docx", "A 491-2026")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24233-2023 tillsynsbegäran mail.docx", "A 24233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 491-2026 tillsynsbegäran mail.docx", "A 491-2026")</f>
         <v/>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
         <v>44782</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1944,14 +1944,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 24254-2023</t>
+          <t>A 24363-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
         <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2001,14 +2001,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 24257-2023</t>
+          <t>A 24254-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2058,14 +2058,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 27561-2025</t>
+          <t>A 24257-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45813.48378472222</v>
+        <v>45076</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2115,14 +2115,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 27589-2025</t>
+          <t>A 47173-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45813.51070601852</v>
+        <v>44852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2172,14 +2172,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 24363-2023</t>
+          <t>A 27589-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45076</v>
+        <v>45813.51070601852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2229,14 +2229,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 47173-2022</t>
+          <t>A 27561-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44852</v>
+        <v>45813.48378472222</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,14 +2286,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 35404-2022</t>
+          <t>A 31246-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44798</v>
+        <v>44771</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2305,13 +2305,8 @@
           <t>HUDDINGE</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>1.4</v>
+        <v>4.3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2348,14 +2343,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 31246-2022</t>
+          <t>A 35404-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44771</v>
+        <v>44798</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2367,8 +2362,13 @@
           <t>HUDDINGE</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>

--- a/Översikt HUDDINGE.xlsx
+++ b/Översikt HUDDINGE.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45894</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -692,14 +692,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 9939-2021</t>
+          <t>A 24264-2023</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44253</v>
+        <v>45076</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -711,28 +711,23 @@
           <t>HUDDINGE</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G3" t="n">
-        <v>2.4</v>
+        <v>7.3</v>
       </c>
       <c r="H3" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -741,117 +736,15 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>9</v>
       </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>14</v>
-      </c>
       <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Grönfink
-Gulsparv
-Havsörn
-Rödvingetrast
-Rörsångare
-Spillkråka
-Svartvit flugsnappare
-Talltita
-Ärtsångare
-Enkelbeckasin
-Gröngöling
-Göktyta
-Järnsparv
-Törnskata</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 9939-2021 artfynd.xlsx", "A 9939-2021")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 9939-2021 karta.png", "A 9939-2021")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 9939-2021 FSC-klagomål.docx", "A 9939-2021")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 9939-2021 FSC-klagomål mail.docx", "A 9939-2021")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 9939-2021 tillsynsbegäran.docx", "A 9939-2021")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 9939-2021 tillsynsbegäran mail.docx", "A 9939-2021")</f>
-        <v/>
-      </c>
-      <c r="Z3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/fåglar/A 9939-2021 prioriterade fågelarter.docx", "A 9939-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 24264-2023</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45076</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>HUDDINGE</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>3</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>9</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Motaggsvamp
 Tallticka
@@ -864,192 +757,92 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24264-2023 artfynd.xlsx", "A 24264-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24264-2023 karta.png", "A 24264-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24264-2023 FSC-klagomål.docx", "A 24264-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24264-2023 FSC-klagomål mail.docx", "A 24264-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24264-2023 tillsynsbegäran.docx", "A 24264-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24264-2023 tillsynsbegäran mail.docx", "A 24264-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 9945-2021</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44253</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D5" t="inlineStr">
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 52259-2024</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45608.6471875</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>STOCKHOLMS LÄN</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>HUDDINGE</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>3</v>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>7</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Gråtrut
-Mindre hackspett
-Rödvingetrast
-Talltita
-Gråkråka
-Kungsfågel
-Nattskärra</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 9945-2021 artfynd.xlsx", "A 9945-2021")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 9945-2021 karta.png", "A 9945-2021")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 9945-2021 FSC-klagomål.docx", "A 9945-2021")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 9945-2021 FSC-klagomål mail.docx", "A 9945-2021")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 9945-2021 tillsynsbegäran.docx", "A 9945-2021")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 9945-2021 tillsynsbegäran mail.docx", "A 9945-2021")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/fåglar/A 9945-2021 prioriterade fågelarter.docx", "A 9945-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 52259-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45608.6471875</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HUDDINGE</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
+      <c r="G4" t="n">
         <v>11.8</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H4" t="n">
         <v>5</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>2</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>2</v>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>5</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Gulsparv
 Svartvit flugsnappare
@@ -1058,91 +851,91 @@
 Större brunfladdermus</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 52259-2024 artfynd.xlsx", "A 52259-2024")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 52259-2024 karta.png", "A 52259-2024")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 52259-2024 FSC-klagomål.docx", "A 52259-2024")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 52259-2024 FSC-klagomål mail.docx", "A 52259-2024")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 52259-2024 tillsynsbegäran.docx", "A 52259-2024")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 52259-2024 tillsynsbegäran mail.docx", "A 52259-2024")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0126/fåglar/A 52259-2024 prioriterade fågelarter.docx", "A 52259-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>A 24365-2023</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B5" s="1" t="n">
         <v>45076</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="C5" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>STOCKHOLMS LÄN</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>HUDDINGE</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G5" t="n">
         <v>0.7</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>3</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>4</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Motaggsvamp
 Björksplintborre
@@ -1150,42 +943,227 @@
 Jättesvampmal</t>
         </is>
       </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24365-2023 artfynd.xlsx", "A 24365-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24365-2023 karta.png", "A 24365-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24365-2023 FSC-klagomål.docx", "A 24365-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24365-2023 FSC-klagomål mail.docx", "A 24365-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24365-2023 tillsynsbegäran.docx", "A 24365-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24365-2023 tillsynsbegäran mail.docx", "A 24365-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 49419-2023</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45211</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HUDDINGE</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Grönfink
+Ärtsångare</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 49419-2023 artfynd.xlsx", "A 49419-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 49419-2023 karta.png", "A 49419-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 49419-2023 FSC-klagomål.docx", "A 49419-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 49419-2023 FSC-klagomål mail.docx", "A 49419-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 49419-2023 tillsynsbegäran.docx", "A 49419-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 49419-2023 tillsynsbegäran mail.docx", "A 49419-2023")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/fåglar/A 49419-2023 prioriterade fågelarter.docx", "A 49419-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 17467-2024</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45415.44597222222</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HUDDINGE</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>14</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Motaggsvamp</t>
+        </is>
+      </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24365-2023 artfynd.xlsx", "A 24365-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 17467-2024 artfynd.xlsx", "A 17467-2024")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24365-2023 karta.png", "A 24365-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 17467-2024 karta.png", "A 17467-2024")</f>
+        <v/>
+      </c>
+      <c r="U7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/knärot/A 17467-2024 karta knärot.png", "A 17467-2024")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24365-2023 FSC-klagomål.docx", "A 24365-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 17467-2024 FSC-klagomål.docx", "A 17467-2024")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24365-2023 FSC-klagomål mail.docx", "A 24365-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 17467-2024 FSC-klagomål mail.docx", "A 17467-2024")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24365-2023 tillsynsbegäran.docx", "A 24365-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 17467-2024 tillsynsbegäran.docx", "A 17467-2024")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24365-2023 tillsynsbegäran mail.docx", "A 24365-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 17467-2024 tillsynsbegäran mail.docx", "A 17467-2024")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 49419-2023</t>
+          <t>A 49421-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
         <v>45211</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1203,16 +1181,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1227,60 +1205,59 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Grönfink
-Ärtsångare</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 49419-2023 artfynd.xlsx", "A 49419-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 49421-2023 artfynd.xlsx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 49419-2023 karta.png", "A 49419-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 49421-2023 karta.png", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 49419-2023 FSC-klagomål.docx", "A 49419-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 49421-2023 FSC-klagomål.docx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 49419-2023 FSC-klagomål mail.docx", "A 49419-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 49421-2023 FSC-klagomål mail.docx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 49419-2023 tillsynsbegäran.docx", "A 49419-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 49421-2023 tillsynsbegäran.docx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 49419-2023 tillsynsbegäran mail.docx", "A 49419-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 49421-2023 tillsynsbegäran mail.docx", "A 49421-2023")</f>
         <v/>
       </c>
       <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/fåglar/A 49419-2023 prioriterade fågelarter.docx", "A 49419-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/fåglar/A 49421-2023 prioriterade fågelarter.docx", "A 49421-2023")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 17467-2024</t>
+          <t>A 24384-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45415.44597222222</v>
+        <v>45076</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,10 +1270,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1305,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1317,60 +1294,55 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Knärot
-Motaggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 17467-2024 artfynd.xlsx", "A 17467-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24384-2023 artfynd.xlsx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 17467-2024 karta.png", "A 17467-2024")</f>
-        <v/>
-      </c>
-      <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/knärot/A 17467-2024 karta knärot.png", "A 17467-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24384-2023 karta.png", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 17467-2024 FSC-klagomål.docx", "A 17467-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24384-2023 FSC-klagomål.docx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 17467-2024 FSC-klagomål mail.docx", "A 17467-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24384-2023 FSC-klagomål mail.docx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 17467-2024 tillsynsbegäran.docx", "A 17467-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24384-2023 tillsynsbegäran.docx", "A 24384-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 17467-2024 tillsynsbegäran mail.docx", "A 17467-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24384-2023 tillsynsbegäran mail.docx", "A 24384-2023")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 24262-2023</t>
+          <t>A 491-2026</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45076</v>
+        <v>46029.42581018519</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,13 +1355,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1417,45 +1389,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24262-2023 artfynd.xlsx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 491-2026 artfynd.xlsx", "A 491-2026")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24262-2023 karta.png", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 491-2026 karta.png", "A 491-2026")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24262-2023 FSC-klagomål.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 491-2026 FSC-klagomål.docx", "A 491-2026")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24262-2023 FSC-klagomål mail.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 491-2026 FSC-klagomål mail.docx", "A 491-2026")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24262-2023 tillsynsbegäran.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 491-2026 tillsynsbegäran.docx", "A 491-2026")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24262-2023 tillsynsbegäran mail.docx", "A 24262-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 491-2026 tillsynsbegäran mail.docx", "A 491-2026")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 49421-2023</t>
+          <t>A 24262-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45211</v>
+        <v>45076</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1467,19 +1439,14 @@
           <t>HUDDINGE</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G11" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1488,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1497,59 +1464,55 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 49421-2023 artfynd.xlsx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24262-2023 artfynd.xlsx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 49421-2023 karta.png", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24262-2023 karta.png", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 49421-2023 FSC-klagomål.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24262-2023 FSC-klagomål.docx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 49421-2023 FSC-klagomål mail.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24262-2023 FSC-klagomål mail.docx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 49421-2023 tillsynsbegäran.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24262-2023 tillsynsbegäran.docx", "A 24262-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 49421-2023 tillsynsbegäran mail.docx", "A 49421-2023")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/fåglar/A 49421-2023 prioriterade fågelarter.docx", "A 49421-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24262-2023 tillsynsbegäran mail.docx", "A 24262-2023")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 24384-2023</t>
+          <t>A 24368-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,16 +1525,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1586,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1596,45 +1559,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24384-2023 artfynd.xlsx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24368-2023 artfynd.xlsx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24384-2023 karta.png", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24368-2023 karta.png", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24384-2023 FSC-klagomål.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24368-2023 FSC-klagomål.docx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24384-2023 FSC-klagomål mail.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24368-2023 FSC-klagomål mail.docx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24384-2023 tillsynsbegäran.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24368-2023 tillsynsbegäran.docx", "A 24368-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24384-2023 tillsynsbegäran mail.docx", "A 24384-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24368-2023 tillsynsbegäran mail.docx", "A 24368-2023")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 24368-2023</t>
+          <t>A 24233-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
         <v>45076</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1647,16 +1610,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1671,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1681,45 +1644,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24368-2023 artfynd.xlsx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24233-2023 artfynd.xlsx", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24368-2023 karta.png", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24233-2023 karta.png", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24368-2023 FSC-klagomål.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24233-2023 FSC-klagomål.docx", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24368-2023 FSC-klagomål mail.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24233-2023 FSC-klagomål mail.docx", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24368-2023 tillsynsbegäran.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24233-2023 tillsynsbegäran.docx", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24368-2023 tillsynsbegäran mail.docx", "A 24368-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24233-2023 tillsynsbegäran mail.docx", "A 24233-2023")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 24233-2023</t>
+          <t>A 32508-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45076</v>
+        <v>44782</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1731,8 +1694,13 @@
           <t>HUDDINGE</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1741,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1756,55 +1724,27 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Svartvit taggsvamp</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 24233-2023 artfynd.xlsx", "A 24233-2023")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 24233-2023 karta.png", "A 24233-2023")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 24233-2023 FSC-klagomål.docx", "A 24233-2023")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 24233-2023 FSC-klagomål mail.docx", "A 24233-2023")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 24233-2023 tillsynsbegäran.docx", "A 24233-2023")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 24233-2023 tillsynsbegäran mail.docx", "A 24233-2023")</f>
-        <v/>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr"/>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 491-2026</t>
+          <t>A 27589-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>46029.42581018519</v>
+        <v>45813.51070601852</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1817,10 +1757,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1847,49 +1787,21 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/artfynd/A 491-2026 artfynd.xlsx", "A 491-2026")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/kartor/A 491-2026 karta.png", "A 491-2026")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomål/A 491-2026 FSC-klagomål.docx", "A 491-2026")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/klagomålsmail/A 491-2026 FSC-klagomål mail.docx", "A 491-2026")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsyn/A 491-2026 tillsynsbegäran.docx", "A 491-2026")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0126/tillsynsmail/A 491-2026 tillsynsbegäran mail.docx", "A 491-2026")</f>
-        <v/>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr"/>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 32508-2022</t>
+          <t>A 27561-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44782</v>
+        <v>45813.48378472222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1901,13 +1813,8 @@
           <t>HUDDINGE</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>4.7</v>
+        <v>0.7</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1951,7 +1858,7 @@
         <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2008,7 +1915,7 @@
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2065,7 +1972,7 @@
         <v>45076</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2122,7 +2029,7 @@
         <v>44852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2172,14 +2079,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 27589-2025</t>
+          <t>A 31246-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45813.51070601852</v>
+        <v>44771</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2192,7 +2099,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2226,17 +2133,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
+    <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 27561-2025</t>
+          <t>A 35404-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45813.48378472222</v>
+        <v>44798</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2248,8 +2155,13 @@
           <t>HUDDINGE</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2282,125 +2194,6 @@
         <v>0</v>
       </c>
       <c r="R22" s="2" t="inlineStr"/>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 31246-2022</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>44771</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>HUDDINGE</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 35404-2022</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>44798</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>HUDDINGE</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HUDDINGE.xlsx
+++ b/Översikt HUDDINGE.xlsx
@@ -575,7 +575,7 @@
         <v>45894</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>45076</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>45608.6471875</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45076</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -978,7 +978,7 @@
         <v>45211</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>45415.44597222222</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>45211</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>45076</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>46029.42581018519</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45076</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>45076</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>44782</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>45813.51070601852</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>45813.48378472222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>45076</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>44771</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44798</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
